--- a/public/5733_hyunmyung.kim.xlsx
+++ b/public/5733_hyunmyung.kim.xlsx
@@ -37,7 +37,7 @@
     <t>CONTRACT NO.</t>
   </si>
   <si>
-    <t>CONTRACT NO</t>
+    <t>FA4861-17-D-A100-18FA140</t>
   </si>
   <si>
     <t xml:space="preserve">PROJECT ID </t>
